--- a/src/main/java/testData/TF_TestData.xlsx
+++ b/src/main/java/testData/TF_TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="19320" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="LoginInfo" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="AddContactInfo" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:S24"/>
+  <oleSize ref="A1:M24"/>
 </workbook>
 </file>
 
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -568,7 +568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
